--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/16_Bilecik_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/16_Bilecik_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D6DFA5-B0BD-4DBF-AF02-B80947AE300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31171C9D-CEB8-414F-8425-6302899B23D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{F70C9647-1D77-4D1B-AD4F-DF13F82A1863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{3FF1566D-B22E-4063-825D-EB334F8F0699}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -944,15 +944,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3D042094-0089-45A5-8666-6BE9AA82A5F5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D42CA2CC-4772-4D21-8847-93C31E65222C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EF45B69D-791D-4E8B-B185-9A382B61DA55}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B4BF7AE6-9AA9-4D83-9306-F8EA368279EC}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{13063109-B6DA-4143-9838-0246363AFE9F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{A0C402EC-E9A1-4B0C-9B67-2B457C187FEF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{AA23E2CD-F4A1-49F5-A75F-806D610DE14E}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{1B6722F5-7C64-432F-A75C-30DE9E0A91FE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{CAEF3B46-91E7-45A5-8E6E-D668CC5F2EA1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7EC8896D-6489-446E-9EA1-3A00CDAD50DB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9981F64D-7522-4870-94B9-2C1E32935F43}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6F442DA4-2E6C-4865-9F8F-472CA4641716}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{49885DBA-DBE8-4346-A54B-84C28F1057EB}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{0F745889-0435-445E-BE8F-D6EF913C0E13}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{B8B71F80-6633-4DD4-8F8C-7984F93495C5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{F4D48A6F-53C4-4477-983D-59301CF7B07C}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{D7DEB51F-AB84-4280-8322-1C12AEBA7384}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{C5179F7D-86D7-41AB-A2D5-0687A1117277}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712BE9E-60CC-4AB1-AFCC-99221CDAF558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD8FC7-4B6D-457F-8A0D-C3F239F92434}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2521,17 +2521,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36704017-63F7-4CDF-AF42-6A7381E58DBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C365F6A-A99D-45A8-B0D6-8278844A41FD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF036BB2-1B89-4828-B933-D84CF7DF748F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E03DFBD-3C9D-464A-BADE-E08A54B97F1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{075407D5-444A-4D96-AF21-ED559DA534E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5B4B996-A716-4824-AB11-B4CE0397D6DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CE62C31-34F5-44D2-A4DB-DDA94092148C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F88CFAB-D28B-4BB7-974F-E6066B5B212B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E89F1AB-1ECC-41F7-83D6-A08390896084}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A77F6D2D-7782-4E2C-9E53-72DDA91EB47F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAB02E9E-0A19-4F54-B5E9-11485B09E372}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{230FC3AD-20FD-470F-ABA3-2804198E4F8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F3C664E-F2C6-4447-80AB-0012B4A3652F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4C653C1-DC31-45EB-9837-2C96ACE66525}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D481B06-8846-477C-8EB8-C838EB4179BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1432255E-3A02-49A9-B263-DBA1A687A897}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25495211-C70F-44B5-93EF-8F662A991813}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6C4B1F1-AFB9-4094-B0B6-4E6CA925CF6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23ECB6E5-F8A0-4767-B4A9-012D7D8AACEE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{392E2401-FB6D-4F94-9D86-F949F0026CD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1679FB91-8D8C-44AF-9CE4-150E166416C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC21DB0E-6F11-464F-AEEE-A524809AEE19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2544,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60386136-475F-4BB6-992A-A585438536CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D55CC50-2793-46FC-8115-0D47CF43F8BC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3734,17 +3734,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C106876-CCA6-48BA-B451-69C89A8CFEF2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A52869EB-0085-4E34-AF2A-620E5BBED428}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{738E00DB-271C-4E59-951C-E40A7A2C3DC9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{15D6EB7C-E5A6-46B2-8988-4D9FD1B0661D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE4EA61-175F-4265-850B-349725B7C34D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CC3FD7A-587C-41DB-A5E8-AF4D80019523}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{522EC6AB-4E82-4BF9-A759-835D0E0385F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3A133D3-2E79-45DB-B848-2EE7C51A93C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65E02C5B-3DF7-4E4E-AEBF-28AE881CEDA3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8FC1633-191C-4091-BDC4-BDCE8BB4CD22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58EF696E-28B6-4376-BF00-D8C1793E39BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBDE024C-2EEE-45D2-ABE6-504716443238}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F49E0B0-B22C-4211-B99D-B067805085FC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44D2D0C3-3312-4FAA-8C07-64E1F19ABF7B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B748196-6AE5-46AC-A872-3A217AFF2C2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE5B7289-1E29-4006-B5DF-E7C2001F979E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABCDC6A3-CFE6-4DE3-A513-1129C093353C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{351F878F-EB41-4319-B8CB-15E7DF32CEFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AD2B837-AD4F-4735-9788-88ACFBC6422A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{605C374E-B98D-49D1-A58D-22C71F649F82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE4E35E9-7DF0-4CAF-8851-F487F087E3FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A76E1B7-1FFA-4750-B587-ADBD38AC8E66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3757,7 +3757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9ADD44-F5B2-4BEC-BEF4-A8E29546D47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F822DB-E4F4-40E2-BFA6-A8FD29495848}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4947,17 +4947,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56203F3E-FDF8-4F68-B7F8-5D3FCC93EC66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB581B90-4EEA-41DB-A456-50012CCC7F7C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3992DF0-3A85-42D7-BCA1-F490FCEE7459}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DCB40A3-1836-4E40-9402-4158EC8BE77A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C652E434-3AAD-4ACC-A941-DCE926596F23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{831BB44C-80FC-4DB9-9D15-2A7104506B8A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A97438B-4243-4805-A239-9049B4367362}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFED4A73-46E4-406E-BA52-13C292CEB879}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B5D6ABE-B95B-42CC-B896-10DE5D05D1CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27547144-771E-4DAD-AF88-BF2181791D7A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E076A0F-D157-41FA-9062-63147E1A5CA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D46D337-8286-4304-89F9-FB66DDC775F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD35A998-8DF5-479D-957A-0DC21B68FA3C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{875A5452-A8CD-42A9-805B-E0D04AA486CD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CFA56EF4-4831-4AD3-9939-38DC740F8006}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAC4F989-9F00-4B33-87F1-2B5AE5277AB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84E56642-27BB-416D-9D1F-A36E3FF120E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8A35575-E36D-4BC3-AE44-B10D182F2AB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB0151EC-7AC5-4B31-9E9C-E05A8994B48C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AC2C238-EADB-4D9D-A087-BFE51CD8D158}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F67CE5C9-3AA8-4D73-9DF2-5DD1ADF286FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B1FBFE2-192D-4D26-8D4C-BE38DF38484D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4970,7 +4970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB3367-93E2-4E22-B65C-5991C42FC1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02140DA6-F371-4F2D-B102-0C510413F8B0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6156,17 +6156,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7C69802-F0B3-41A9-8A56-68DFB3178633}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F1E034B-23A3-4E20-B90A-DFBDA60C8C6E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5EB4B50-F517-4842-BA02-2B643B1831E8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64510838-F6AA-43ED-ACC6-323A51B173DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A36D79E-1FA9-4E4F-8974-A857D8F74734}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA4EBF7E-932F-4E1C-A690-7510DF1D98D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03EC60E6-677E-4FC5-AE79-155D8CF62A9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{239C3C6C-9175-4796-8903-E14BEC8E0097}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA1C58EE-0628-4637-B83E-575D55E6AF2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF5F7EAA-2276-43E0-B4F7-5E378988189E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30AA2804-BACA-40A3-BDA5-C073C1F48704}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{517883C3-C332-4DE0-8381-6895A00FCE8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAE49653-6688-49F1-B12A-783E2242AA0D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{20306C3D-D30D-41A2-B8CB-BF1530B2D6E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B13D93F-864A-4C15-A9CD-B51482A3405F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5300EC9C-570A-43D5-BA81-DAB56D92D467}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79921F18-D7BD-45D5-9F75-613FF05ACF3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54CEEA7A-CD31-44DF-A96A-FF50DC371FD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7ACC63A0-8DC6-4A72-A25D-B60105BADEE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5781FEC-7C35-4409-994E-CDB7DD234475}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02EBE437-1CA6-4695-BB47-4C063641DAD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CDF4269-F9B7-41FA-8858-473632CE0ACA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6179,7 +6179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5BCD3D-0590-4435-A047-7BB75FC1817F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B89D98A-5310-475E-A337-6641B8D1E43F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7378,17 +7378,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{074392DE-21A7-4D43-86E6-0C26C3594B6C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C536F1D-F6BD-4B45-91DC-B6D1163F69F8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EACADD25-102F-49C2-81E4-3C4C8DAFD571}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1242DCA8-DE7D-4399-860F-A9C27D6AF253}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB2017B1-1DD8-4875-B806-E0AB413882B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEFDBEED-61CF-45FA-AEA6-354916CB65A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C70A544-B450-458B-BDEF-6727AA9F1351}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66DC33F4-D966-4164-A4EC-CF244895E68C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EBA3E61-7937-4AC0-9209-6FA9EC671269}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7896C67D-F0FB-41A4-B7EF-EF444AE6656B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42B2506A-1EDE-4C65-9E0A-BC03F2EB637A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C94BCCB-4F16-48EA-B24A-779679C415AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3958707C-A1BF-4413-BA76-78A9856DDA06}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B2557D0-D2DC-4589-8C5F-AAFE86041E4F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E8AFB4E-240E-47E0-9D67-A383C5E3EBAD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A5EA8ED-678D-4E61-8002-A41D1928BB09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EC88D83-A664-43F7-B672-CE1BA0CFFF34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5E00D44-2872-4EEC-93FA-4D7A2325B7A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7526ECDF-4C89-4441-BC3C-58DF56CA3BF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{836D9554-A14C-4E26-A432-BE227F4FABE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE150DCC-B27F-4DD8-9C92-8BFCC760FC61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9008868D-AA28-4F72-A28B-8B4F08A28AB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7401,7 +7401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDE6A97-C974-445E-AD27-19F3367B19E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAB29B4-0733-4319-B6C5-F5CC6E38231A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8600,17 +8600,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E389396F-DFF4-4966-8CB2-1B9D0587003A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F00A115-5236-41FE-9F05-0D8A78532216}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77A2F158-0376-4700-990C-4DF1E70CDB1F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A2AD2A2-4D77-4564-A8B1-A563706E8ABD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8BC446D7-E1D4-4D3F-9418-67B9D3318BE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27512345-158E-479E-9CCC-0BAC2F06C486}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{097C34C4-0D7D-468B-84E3-D18B53BB3ED1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E5F0299-E952-49EB-852A-A8A459FAC4BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D49881E-18F4-4ED0-A344-B75520C252FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A57B5AA6-EE29-466E-A701-D5BE8D826C95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AD79092-99F5-403B-86C6-35D21E4CC0AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{820FF227-DFCC-4320-8793-F7F678BC3CAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AA2345E-CFF9-458B-9AFD-0BE2A9248253}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB568307-4F99-41AE-99DC-DB39B954963F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6664F5C6-29C8-4A99-9C38-47FFE0D2D507}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C89C6AB2-D239-4EA2-9987-FF4B7A13F1BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BAD14AD-12A0-4929-85A5-8F59BA5ABC00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41EF7DDC-4791-40AB-A1B4-E34DAD51619A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4D4032D-6493-4249-AB10-0662BC4AF260}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6EB7C1F-8E71-4624-BB90-9C20AEAC0462}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A90098D0-297C-4315-804C-D8CE8D8A5078}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C3E223D-D4F0-4225-B68B-8FEA007B7CFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8623,7 +8623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC7DBCD-51A2-4C4C-AE14-0A187B8A97ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3F9DF6-C36E-4111-9BCE-0B255B5326AB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9822,17 +9822,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA9D6317-B393-4F4E-B426-05C9349E206D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{422E564B-0301-40FB-8866-94B55F8134B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2345283C-FC43-4269-9A65-B091141E2D0C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C7A78EB-8356-4806-9746-EF9B68F19AE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF1076C9-B48F-4FF7-9CF7-2B0A24D9CBED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F0E8784-3C43-45EC-99E6-D92ED2F0B0BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9448B8D6-3C42-457C-80DF-7E88FD045380}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51DA180D-4851-4CF7-9BDD-670810A998AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CFBA57C-B387-42E8-85E9-90762741D0C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1511CBD-828A-4719-AC61-C298DC9D798F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D0E4A1E-E99F-45CD-B2F4-3C9DCE03A554}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5F42F79-70D7-4064-9EB0-908C51D9CD98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48C3DA74-BB05-4A46-8C3E-6DB121B49769}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6B7F035-275E-4D3A-84D9-F263CA66BD1C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8A728C84-3601-4E5D-99B0-5321EBBA836A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CAB8F4D-CBD9-48A8-A106-DF5817B12F93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6DDE9FDA-B627-496C-BCB2-A4D1820557D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A7A5DB7-2ED2-4D65-9D57-9C3A85147F77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32470FE1-967E-4CBF-AF5A-1B1ABF6C622D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{677DD861-D252-43CD-9A32-8091338F8EE9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71A4BC8D-B9B0-4659-AF77-5C122A1AD5EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CE0571A-E5E0-4CA5-ACD5-5E6AA8105E10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC70E9F-B742-4AEF-955A-51CBE4323D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808DDE8C-3362-4FDF-A93A-609738561409}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11044,17 +11044,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2828CD1-EC0A-4338-8E4A-367DC2E066FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5FEA945-2DAB-40BA-A432-5903A68193CB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E0B7823-B0BA-4E09-A2C5-82877FFA09D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C89C294E-4ACB-4DB1-B5B8-A1DEBDD4FC8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9647883B-49B5-47FD-ABBA-2F0C23626648}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52234760-B4B0-4106-91B1-B55BAEFFA212}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7236C27-DFD8-4436-B399-3F1BD7B9C35D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25D095B1-F1BE-4D96-8FD1-7AD6AA6F6783}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BDDFD79-5C5D-4E81-BF74-A4F2BC4B48F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{799EE09A-ED7F-447E-978F-457FA980D608}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5920BC64-3865-4927-92CE-0922FE6B320E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B793282E-78BA-453B-9C28-B263E23A8E15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7820B0DD-FCEF-445A-9D63-58B31BD35525}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89A0586E-78A6-4EDC-B7B4-D3D4A1420E81}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E3A5742-A8DF-4031-BD06-5A8D08F24FC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CA87384-6688-4CBE-A772-4799D7605A00}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C64C715F-BECB-4EA7-918C-07C5C8BD7EFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7EEEB88-FE68-410E-987A-E1808000C32C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51969839-A885-4F9A-A819-32D98C8B5FDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{088C0698-F1C0-4F29-B4E0-8251EDAB8E57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8CB0C73-2D03-426B-A284-1AF02BBB5AD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42583437-3E15-4529-93B2-AC8C77375169}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11067,7 +11067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C9534-D211-4B23-A42B-971DB8205D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45408FA-CA58-424A-9A6D-795D0299A164}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12266,17 +12266,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCB13BC4-7EC9-4053-B11A-BE9E5E3F82A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88032B09-322B-4874-965C-5A34B268878A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BCE3E70-CAE6-46FD-88FF-A04576F70DC5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5B88709-D8EB-41E1-B035-A26D15F2F27D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0F2DF3F-51CF-4EBC-BD9D-FC1109217B41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FE86F2D-BEC4-4655-AD5E-D38543C11C92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3D69D86-9106-4F4C-BB03-54A8513E20CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7176211-9593-45E6-A516-B1B1EAC1B6C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3099502-E4A3-42A9-BD5F-387E01023AC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49AEF6E7-7428-4501-BE53-7545E7CE4BDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27D2AD27-55A8-49A2-8841-5893C619A061}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07E72ABF-C7F8-4058-AD00-626C310E6092}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C6D098A-E8DD-4A7F-ADDF-98D8CFF2977C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{74C094AD-5774-455E-800D-B738CA6B4B19}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B6ED13E-4089-47FB-9F20-CCAAA2CDDB62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23B20C74-9986-4A84-8CA3-48930EABCC63}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3238F8E8-F898-4D1E-BB05-21741B1F9265}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73A3B6E2-744F-413C-9273-23BBF0999BC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41AE3797-1339-4D3C-B157-2BDD22793EF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B72CFDB8-83B0-4003-B01E-997D2497567F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9812B2BF-D66E-4762-A91B-66B6E4490621}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F1D13F0-6833-4F88-A159-BAA258491E62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12289,7 +12289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39A3260-6E5A-4C48-878B-E59B179A3726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E339E1A2-1F35-4719-B1F6-05FB0B23E073}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13488,17 +13488,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E28DDD20-2B98-42C7-AAA5-EAA812ECF0DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64E7151E-052D-446B-88EA-FDC4890329ED}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F7D9B7B-C495-4718-BAD5-F5CCE863607B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD419B6F-DF28-4D66-80CB-62DCC442A3C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74FEEE92-841D-4548-9D72-8F7258B8EA39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{573AB9E3-B720-4EB1-B176-41588855E73D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1789BBC7-B175-4CA8-8ACC-1D339AD66649}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{516FD12E-060B-48EC-A18C-D20FC0D57B0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74B71536-8039-4100-8B4E-1777A857F6F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1A75F1A-D474-4F8F-B67D-4824CC70372D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0859F55-029C-40F7-925B-290324B9F049}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57CB0A55-F355-4753-8CEF-B4B87B63144C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3D74C02-A346-4E1F-AE98-D2AEFC570797}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F826F720-079C-4583-8235-C710A06E4E2E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C2DBC78-7BE2-4E2D-9345-C6F480FDD889}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0687F73D-E380-41ED-BB1A-6E431E3985AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBFFD0DC-484A-49AB-9FE0-AD04BD9D1ED8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8CDCE2C-3518-493A-AA17-D3F638F900B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73C3BF4C-4816-4B83-AA0D-F635469371B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64CFB2A0-67BF-47D0-8B3F-DF2192F57B5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{85BA3A1E-9E39-42C8-8C95-1BCC7F94933B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97B55064-769E-489E-A7F3-A3370367ED74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13511,7 +13511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F52F6A-851E-4182-982E-510B3A39D83D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CDF054-5E94-4749-841C-EB25FE11B6C2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14710,17 +14710,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB4F04C5-76C9-4DDF-8D2E-1F62DE2E169A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D02600D-F4C5-43A2-9FAD-2157B83A9448}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BFBAC67-0F23-413F-BAC2-FD71D1E9D26C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F72EFFA8-135F-4C4A-9B6F-9881CFA0AC99}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BAE5581A-F6BF-4766-BB39-F8ECBEE0B0E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C766DD4-A144-44F2-B553-C4071E4D3678}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FDCC430-B44D-4500-824B-65A662275E43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{998DCCD7-A385-42A7-B225-24F896F04750}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B90E931-9CDC-438E-B1DC-5FCFF42EB929}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5B30D22-3AF3-4BCC-B03C-05895962CFAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21E5E82E-0A87-4142-90A0-4E698168F8F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5762C223-5293-4768-9E00-BDD9E010C169}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B313D9FA-F81F-4A83-800A-9E984E1EA386}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9331BC6-B039-4B08-A53F-F02578B4D08C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8024F483-DE5D-442A-B965-07EE3C6D758A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A1CCA8D-1EE0-4826-9A60-77104EC7BFB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{019C147D-4509-497C-887A-26F91B0CD1AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA2DBC7E-94F1-46DE-ACA5-5AA54491D5B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E14382B-0EA5-41CD-8D96-FB0E8606FAC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B89548B-BDE5-4C56-BFDD-9967F9D0322D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{226D9FF9-0355-4EAC-93D3-6116171BDC58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2749D7B2-0D71-45EE-86E8-091306D4DFE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14733,7 +14733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93197AD-67C5-44B9-95D1-0A3B9CC017DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CB2561-4CBD-4FB3-AF99-0F7BCB5B5C0A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15932,17 +15932,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C902F30-2E65-4B04-AD8C-2D174B75DC52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8FEDF7B-B9BE-448A-A240-CDC394455E5C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35AC1A4D-0032-464A-A8B1-48F6745CC0D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62C6611F-FCBD-4C12-9606-648785A55255}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1783A81-26E9-4390-9E93-FDA16346FF60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4122497-CEF1-4011-B656-7C51C19ED6C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7863E9C1-DC46-4E31-AA27-C42A17FBBE0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC71E844-3671-494E-947F-3078E5D1FF7C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7235A7AA-8F0E-42A3-86CD-67CB5A7C2589}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C97FE13-56F3-4691-BC6B-284E6BC45ACD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCCEDB51-6FF2-4BBD-A468-274D5BDD96ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8280A5F7-49FF-4BDF-B99E-43B7EA6902FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6A592DF-8CFA-4CB0-8CD1-B5EAF5D9678B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C404239C-3F58-4668-AED7-4756CBAF21F2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8106E8AE-D96B-4C1F-822F-2D4CCB20A031}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADBB9199-FA1C-4908-B003-19EE3D23C44A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4F3AC01-081B-4775-9010-FB855766E11D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1746D39-B8CE-4C3C-B503-DABAA6CAD21C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7508926F-DE52-4559-8B52-49F277C3C474}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A58C97F2-C865-4DD8-BC11-2F3B6F9F0D5E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FA4664A-61BC-4773-9A80-2985060203DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{339BCA96-0399-424C-AC0A-1D5243301C2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
